--- a/routes/data.xlsx
+++ b/routes/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>ID</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>ABERTO</t>
+  </si>
+  <si>
+    <t>amazon</t>
   </si>
 </sst>
 </file>
@@ -410,7 +413,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="B12" sqref="B12"/>
@@ -464,6 +467,20 @@
         <v>10</v>
       </c>
     </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:C1"/>
